--- a/biology/Zoologie/Bogdocosa_kronebergi/Bogdocosa_kronebergi.xlsx
+++ b/biology/Zoologie/Bogdocosa_kronebergi/Bogdocosa_kronebergi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bogdocosa kronebergi, unique représentant du genre Bogdocosa, est une espèce d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bogdocosa kronebergi, unique représentant du genre Bogdocosa, est une espèce d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Russie dans l'oblast d'Astrakhan, en Azerbaïdjan, en Iran dans les provinces du Khorasan septentrional et du Khorasan-e Razavi, au Kazakhstan, en Ouzbékistan, au Tadjikistan et en Chine au Xinjiang[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Russie dans l'oblast d'Astrakhan, en Azerbaïdjan, en Iran dans les provinces du Khorasan septentrional et du Khorasan-e Razavi, au Kazakhstan, en Ouzbékistan, au Tadjikistan et en Chine au Xinjiang,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 4,4 à 5,7 mm et les femelles de 5,0 à 8,2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 4,4 à 5,7 mm et les femelles de 5,0 à 8,2 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Alopecosa kronebergi par Andreeva en 1976. Elle est placée dans le genre Bogdocosa par Ponomarev, Belosludtsev et Dvadnenko en 2008[3].
-Pardosa beijiangensis[4] et Bogdocosa baskuntchakensis[3] ont été placées en synonymie par Esyunin et Ponomarev en 2018[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Alopecosa kronebergi par Andreeva en 1976. Elle est placée dans le genre Bogdocosa par Ponomarev, Belosludtsev et Dvadnenko en 2008.
+Pardosa beijiangensis et Bogdocosa baskuntchakensis ont été placées en synonymie par Esyunin et Ponomarev en 2018.
 Ce genre a été décrit par Ponomarev et Belosludtsev en 2008 dans les Lycosidae.
 </t>
         </is>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Andreeva, 1976 : Payki Tadzhikistana. Dyushanbe, p. 1-196.
 Ponomarev, Belosludtsev &amp; Dvadnenko, 2008 : « Spiders (Aranei) of the lower Volga region (Astrakhan and Volgograd areas of Russia) with the description of new taxa. » Caucasian Entomological Bulletin, vol. 4, no 2, p. 163-185.</t>
